--- a/Release Checklist.xlsx
+++ b/Release Checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Repository\Genesis-Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32921A44-AC89-418B-8370-1E8F9190852E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F587CE9-10EE-4308-99A2-6E30F363B5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>DEV</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Advertisement Sensitive Category</t>
+  </si>
+  <si>
+    <t>External Navigations and Shortcuts</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
   <dimension ref="B1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,10 +474,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
+    <row r="7" spans="2:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>

--- a/Release Checklist.xlsx
+++ b/Release Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Repository\Genesis-Android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F587CE9-10EE-4308-99A2-6E30F363B5E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC7090A-65A5-4EAD-B21B-374757303239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
